--- a/generated_docs/WR_89700562_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I66"/>
+  <dimension ref="A2:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15119.71</v>
+        <v>17736.03</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/30/2025 to 08/03/25</t>
+          <t>07/28/2025 to 08/03/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -2213,19 +2213,315 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="15" t="inlineStr">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C66" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E66" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="13" t="inlineStr"/>
+      <c r="H66" s="14" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E67" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="11" t="n">
+        <v>539.6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E68" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" s="13" t="inlineStr"/>
+      <c r="H68" s="14" t="n">
+        <v>714.6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E69" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E70" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>323.76</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H66" s="16" t="n">
-        <v>1752.96</v>
+      <c r="H71" s="16" t="n">
+        <v>3807.32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/31/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D75" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G75" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H75" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="11" t="n">
+        <v>323.76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C77" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" s="13" t="inlineStr"/>
+      <c r="H77" s="14" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H78" s="16" t="n">
+        <v>561.96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A66:G66"/>
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A39:H39"/>
@@ -2235,10 +2531,13 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A78:G78"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A71:G71"/>
     <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A74:H74"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89700562_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I78"/>
+  <dimension ref="A2:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17736.03</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>2620.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>20.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>40.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +980,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,11 +999,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-R</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Riser Pole</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>ARR-10-R</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>ARR,10kV,Riser Pole</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,11 +1237,11 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1271,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1305,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,11 +1373,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,217 +1407,217 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="inlineStr">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>SWI-27-CO1-100-H-C</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H36" s="16" t="n">
-        <v>5859.349999999999</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="inlineStr">
+      <c r="H40" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
         <is>
           <t>Tuesday (07/29/2025)</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C40" s="8" t="inlineStr">
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D40" s="8" t="inlineStr">
+      <c r="D44" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E40" s="8" t="inlineStr">
+      <c r="E44" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F40" s="8" t="inlineStr">
+      <c r="F44" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G40" s="8" t="inlineStr">
+      <c r="G44" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H40" s="8" t="inlineStr">
+      <c r="H44" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B41" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="G41" s="10" t="inlineStr"/>
-      <c r="H41" s="11" t="n">
-        <v>2620.2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B42" s="12" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C42" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="12" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="n">
-        <v>22</v>
-      </c>
-      <c r="G42" s="13" t="inlineStr"/>
-      <c r="H42" s="14" t="n">
-        <v>2620.2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B43" s="9" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C43" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="10" t="inlineStr"/>
-      <c r="H43" s="11" t="n">
-        <v>215.84</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B44" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C44" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D44" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E44" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" s="13" t="inlineStr"/>
-      <c r="H44" s="14" t="n">
-        <v>238.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D45" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E45" s="9" t="inlineStr">
@@ -1636,11 +1636,11 @@
         </is>
       </c>
       <c r="F45" s="10" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B46" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-R</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C46" s="12" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D46" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Riser Pole</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E46" s="12" t="inlineStr">
@@ -1670,11 +1670,11 @@
         </is>
       </c>
       <c r="F46" s="13" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>CNA-TM</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1738,11 +1738,11 @@
         </is>
       </c>
       <c r="F48" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1772,11 +1772,11 @@
         </is>
       </c>
       <c r="F49" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>ARR-10-R</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>ARR,10kV,Riser Pole</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1806,11 +1806,11 @@
         </is>
       </c>
       <c r="F50" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1840,11 +1840,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="F53" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1942,22 +1942,22 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1976,22 +1976,22 @@
         </is>
       </c>
       <c r="F55" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -2014,13 +2014,13 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B57" s="9" t="inlineStr">
@@ -2048,496 +2048,666 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="inlineStr">
+      <c r="A58" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B58" s="12" t="inlineStr">
+        <is>
+          <t>SWI-27-CO1-100-H-C</t>
+        </is>
+      </c>
+      <c r="C58" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="12" t="inlineStr">
+        <is>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+        </is>
+      </c>
+      <c r="E58" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13" t="inlineStr"/>
+      <c r="H58" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E59" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10" t="inlineStr"/>
+      <c r="H59" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C60" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E60" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13" t="inlineStr"/>
+      <c r="H60" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E61" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="10" t="inlineStr"/>
+      <c r="H61" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B62" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C62" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E62" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="13" t="inlineStr"/>
+      <c r="H62" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H58" s="16" t="n">
-        <v>7507.400000000001</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="7" t="inlineStr">
+      <c r="H63" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="inlineStr">
         <is>
           <t>Wednesday (07/30/2025)</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C62" s="8" t="inlineStr">
+      <c r="C67" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D62" s="8" t="inlineStr">
+      <c r="D67" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E62" s="8" t="inlineStr">
+      <c r="E67" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F62" s="8" t="inlineStr">
+      <c r="F67" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G62" s="8" t="inlineStr">
+      <c r="G67" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H62" s="8" t="inlineStr">
+      <c r="H67" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="9" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B63" s="9" t="inlineStr">
+      <c r="B68" s="9" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C63" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D63" s="9" t="inlineStr">
+      <c r="C68" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="9" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E63" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F63" s="10" t="n">
+      <c r="E68" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="G63" s="10" t="inlineStr"/>
-      <c r="H63" s="11" t="n">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="12" t="inlineStr">
+      <c r="G68" s="10" t="inlineStr"/>
+      <c r="H68" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B64" s="12" t="inlineStr">
+      <c r="B69" s="12" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C64" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D64" s="12" t="inlineStr">
+      <c r="C69" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="12" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E64" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F64" s="13" t="n">
+      <c r="E69" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G64" s="13" t="inlineStr"/>
-      <c r="H64" s="14" t="n">
-        <v>238.2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="inlineStr">
+      <c r="G69" s="13" t="inlineStr"/>
+      <c r="H69" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B65" s="9" t="inlineStr">
+      <c r="B70" s="9" t="inlineStr">
         <is>
           <t>CNA-TM</t>
         </is>
       </c>
-      <c r="C65" s="9" t="inlineStr">
+      <c r="C70" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D65" s="9" t="inlineStr">
+      <c r="D70" s="9" t="inlineStr">
         <is>
           <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
-      <c r="E65" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F65" s="10" t="n">
+      <c r="E70" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G65" s="10" t="inlineStr"/>
-      <c r="H65" s="11" t="n">
-        <v>323.76</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="12" t="inlineStr">
+      <c r="G70" s="10" t="inlineStr"/>
+      <c r="H70" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="12" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B66" s="12" t="inlineStr">
+      <c r="B71" s="12" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C66" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D66" s="12" t="inlineStr">
+      <c r="C71" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="12" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E66" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F66" s="13" t="n">
+      <c r="E71" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G66" s="13" t="inlineStr"/>
-      <c r="H66" s="14" t="n">
-        <v>238.2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="inlineStr">
+      <c r="G71" s="13" t="inlineStr"/>
+      <c r="H71" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B67" s="9" t="inlineStr">
+      <c r="B72" s="9" t="inlineStr">
         <is>
           <t>CNA-TM</t>
         </is>
       </c>
-      <c r="C67" s="9" t="inlineStr">
+      <c r="C72" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D67" s="9" t="inlineStr">
+      <c r="D72" s="9" t="inlineStr">
         <is>
           <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
-      <c r="E67" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F67" s="10" t="n">
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G67" s="10" t="inlineStr"/>
-      <c r="H67" s="11" t="n">
-        <v>539.6</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="12" t="inlineStr">
+      <c r="G72" s="10" t="inlineStr"/>
+      <c r="H72" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="12" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B68" s="12" t="inlineStr">
+      <c r="B73" s="12" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C68" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D68" s="12" t="inlineStr">
+      <c r="C73" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D73" s="12" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E68" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F68" s="13" t="n">
+      <c r="E73" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="G68" s="13" t="inlineStr"/>
-      <c r="H68" s="14" t="n">
-        <v>714.6</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="inlineStr">
+      <c r="G73" s="13" t="inlineStr"/>
+      <c r="H73" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B69" s="9" t="inlineStr">
+      <c r="B74" s="9" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
+      <c r="C74" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D74" s="9" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E69" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="n">
+      <c r="E74" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G69" s="10" t="inlineStr"/>
-      <c r="H69" s="11" t="n">
-        <v>238.2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="inlineStr">
+      <c r="G74" s="10" t="inlineStr"/>
+      <c r="H74" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B70" s="12" t="inlineStr">
+      <c r="B75" s="12" t="inlineStr">
         <is>
           <t>CNA-TM</t>
         </is>
       </c>
-      <c r="C70" s="12" t="inlineStr">
+      <c r="C75" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D70" s="12" t="inlineStr">
+      <c r="D75" s="12" t="inlineStr">
         <is>
           <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
-      <c r="E70" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="13" t="n">
+      <c r="E75" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G70" s="13" t="inlineStr"/>
-      <c r="H70" s="14" t="n">
-        <v>323.76</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="15" t="inlineStr">
+      <c r="G75" s="13" t="inlineStr"/>
+      <c r="H75" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H71" s="16" t="n">
-        <v>3807.32</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="7" t="inlineStr">
+      <c r="H76" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="inlineStr">
         <is>
           <t>Thursday (07/31/2025)</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="8" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B75" s="8" t="inlineStr">
+      <c r="B80" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C75" s="8" t="inlineStr">
+      <c r="C80" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D75" s="8" t="inlineStr">
+      <c r="D80" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E75" s="8" t="inlineStr">
+      <c r="E80" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F75" s="8" t="inlineStr">
+      <c r="F80" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G75" s="8" t="inlineStr">
+      <c r="G80" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H75" s="8" t="inlineStr">
+      <c r="H80" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="9" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B76" s="9" t="inlineStr">
+      <c r="B81" s="9" t="inlineStr">
         <is>
           <t>CNA-TM</t>
         </is>
       </c>
-      <c r="C76" s="9" t="inlineStr">
+      <c r="C81" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D76" s="9" t="inlineStr">
+      <c r="D81" s="9" t="inlineStr">
         <is>
           <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
-      <c r="E76" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="10" t="n">
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G76" s="10" t="inlineStr"/>
-      <c r="H76" s="11" t="n">
-        <v>323.76</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="12" t="inlineStr">
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B77" s="12" t="inlineStr">
+      <c r="B82" s="12" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C77" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="12" t="inlineStr">
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E77" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="13" t="n">
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G77" s="13" t="inlineStr"/>
-      <c r="H77" s="14" t="n">
-        <v>238.2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="15" t="inlineStr">
+      <c r="G82" s="13" t="inlineStr"/>
+      <c r="H82" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H78" s="16" t="n">
-        <v>561.96</v>
+      <c r="H83" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A58:G58"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A83:G83"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A78:G78"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A66:H66"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A71:G71"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A63:G63"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89700562_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I83"/>
+  <dimension ref="A2:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>17736.03</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P23</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>2620.2</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +942,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +976,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,11 +995,11 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1010,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1024,7 +1020,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1044,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1054,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,22 +1063,22 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,22 +1097,22 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>ARR-10-R</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>ARR,10kV,Riser Pole</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1146,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,11 +1165,11 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1180,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-R</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Riser Pole</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1237,11 +1233,11 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,11 +1267,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1301,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,11 +1369,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="35">
@@ -1388,7 +1384,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,217 +1403,217 @@
         </is>
       </c>
       <c r="F35" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="10" t="n">
+      <c r="A36" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H36" s="16" t="n">
+        <v>5859.349999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (07/29/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D40" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F40" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E41" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="G41" s="10" t="inlineStr"/>
+      <c r="H41" s="11" t="n">
+        <v>2620.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C42" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="12" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E42" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G42" s="13" t="inlineStr"/>
+      <c r="H42" s="14" t="n">
+        <v>2620.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G36" s="10" t="inlineStr"/>
-      <c r="H36" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="inlineStr">
-        <is>
-          <t>POL-45-2</t>
-        </is>
-      </c>
-      <c r="C37" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D37" s="12" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="13" t="inlineStr"/>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10" t="inlineStr"/>
-      <c r="H38" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="inlineStr">
-        <is>
-          <t>SWI-27-CO1-100-H-C</t>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="12" t="inlineStr">
-        <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
-        </is>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="inlineStr"/>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H40" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (07/29/2025)</t>
-        </is>
+      <c r="G43" s="10" t="inlineStr"/>
+      <c r="H43" s="11" t="n">
+        <v>215.84</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D44" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E44" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F44" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G44" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H44" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A44" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C44" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="13" t="inlineStr"/>
+      <c r="H44" s="14" t="n">
+        <v>238.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
@@ -1627,7 +1623,7 @@
       </c>
       <c r="D45" s="9" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E45" s="9" t="inlineStr">
@@ -1636,11 +1632,11 @@
         </is>
       </c>
       <c r="F45" s="10" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="46">
@@ -1651,7 +1647,7 @@
       </c>
       <c r="B46" s="12" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>ARR-10-R</t>
         </is>
       </c>
       <c r="C46" s="12" t="inlineStr">
@@ -1661,7 +1657,7 @@
       </c>
       <c r="D46" s="12" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>ARR,10kV,Riser Pole</t>
         </is>
       </c>
       <c r="E46" s="12" t="inlineStr">
@@ -1670,11 +1666,11 @@
         </is>
       </c>
       <c r="F46" s="13" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="47">
@@ -1685,17 +1681,17 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>CNA-TM</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>CNA,Trim Trees Minor</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1708,7 +1704,7 @@
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1715,7 @@
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
@@ -1729,7 +1725,7 @@
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1738,11 +1734,11 @@
         </is>
       </c>
       <c r="F48" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1749,7 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
@@ -1763,7 +1759,7 @@
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1772,11 +1768,11 @@
         </is>
       </c>
       <c r="F49" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1783,7 @@
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-R</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
@@ -1797,7 +1793,7 @@
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Riser Pole</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1806,11 +1802,11 @@
         </is>
       </c>
       <c r="F50" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1817,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1831,7 +1827,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1840,11 +1836,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1851,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1865,7 +1861,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1878,7 +1874,7 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="53">
@@ -1889,7 +1885,7 @@
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1899,7 +1895,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1908,22 +1904,22 @@
         </is>
       </c>
       <c r="F53" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1933,7 +1929,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1942,22 +1938,22 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
@@ -1967,7 +1963,7 @@
       </c>
       <c r="D55" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E55" s="9" t="inlineStr">
@@ -1976,22 +1972,22 @@
         </is>
       </c>
       <c r="F55" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
@@ -2001,7 +1997,7 @@
       </c>
       <c r="D56" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E56" s="12" t="inlineStr">
@@ -2014,13 +2010,13 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B57" s="9" t="inlineStr">
@@ -2048,666 +2044,496 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="inlineStr">
+      <c r="A58" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H58" s="16" t="n">
+        <v>7507.400000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/30/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D62" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F62" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H62" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B58" s="12" t="inlineStr">
-        <is>
-          <t>SWI-27-CO1-100-H-C</t>
-        </is>
-      </c>
-      <c r="C58" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="12" t="inlineStr">
-        <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
-        </is>
-      </c>
-      <c r="E58" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13" t="inlineStr"/>
-      <c r="H58" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="inlineStr">
-        <is>
-          <t>CND-S620A</t>
-        </is>
-      </c>
-      <c r="C59" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="9" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
-        </is>
-      </c>
-      <c r="E59" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="10" t="inlineStr"/>
-      <c r="H59" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B60" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C60" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E60" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F60" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="13" t="inlineStr"/>
-      <c r="H60" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C61" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E61" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="10" t="inlineStr"/>
-      <c r="H61" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="12" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B62" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C62" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D62" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E62" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F62" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="13" t="inlineStr"/>
-      <c r="H62" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="15" t="inlineStr">
+      <c r="B63" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C63" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E63" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" s="10" t="inlineStr"/>
+      <c r="H63" s="11" t="n">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B64" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C64" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E64" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="13" t="inlineStr"/>
+      <c r="H64" s="14" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E65" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="10" t="inlineStr"/>
+      <c r="H65" s="11" t="n">
+        <v>323.76</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C66" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E66" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="13" t="inlineStr"/>
+      <c r="H66" s="14" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E67" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="11" t="n">
+        <v>539.6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E68" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" s="13" t="inlineStr"/>
+      <c r="H68" s="14" t="n">
+        <v>714.6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E69" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E70" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>323.76</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H63" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (07/30/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="inlineStr">
+      <c r="H71" s="16" t="n">
+        <v>3807.32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/31/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
+      <c r="B75" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C67" s="8" t="inlineStr">
+      <c r="C75" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D67" s="8" t="inlineStr">
+      <c r="D75" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E67" s="8" t="inlineStr">
+      <c r="E75" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F67" s="8" t="inlineStr">
+      <c r="F75" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G67" s="8" t="inlineStr">
+      <c r="G75" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H67" s="8" t="inlineStr">
+      <c r="H75" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B68" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C68" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D68" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E68" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F68" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G68" s="10" t="inlineStr"/>
-      <c r="H68" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B69" s="12" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="11" t="n">
+        <v>323.76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C69" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D69" s="12" t="inlineStr">
+      <c r="C77" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E69" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F69" s="13" t="n">
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G69" s="13" t="inlineStr"/>
-      <c r="H69" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B70" s="9" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C70" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D70" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E70" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G70" s="10" t="inlineStr"/>
-      <c r="H70" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="12" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B71" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C71" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D71" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E71" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" s="13" t="inlineStr"/>
-      <c r="H71" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C72" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D72" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G72" s="10" t="inlineStr"/>
-      <c r="H72" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="12" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B73" s="12" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C73" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D73" s="12" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E73" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G73" s="13" t="inlineStr"/>
-      <c r="H73" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B74" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C74" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D74" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E74" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" s="10" t="inlineStr"/>
-      <c r="H74" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B75" s="12" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C75" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D75" s="12" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E75" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G75" s="13" t="inlineStr"/>
-      <c r="H75" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="15" t="inlineStr">
+      <c r="G77" s="13" t="inlineStr"/>
+      <c r="H77" s="14" t="n">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H76" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/31/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B80" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C80" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D80" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E80" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F80" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G80" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H80" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B81" s="9" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C81" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D81" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E81" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G81" s="10" t="inlineStr"/>
-      <c r="H81" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B82" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C82" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D82" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E82" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F82" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G82" s="13" t="inlineStr"/>
-      <c r="H82" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H83" s="16" t="n">
-        <v>0</v>
+      <c r="H78" s="16" t="n">
+        <v>561.96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A58:G58"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A39:H39"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A83:G83"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A78:G78"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A66:H66"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A74:H74"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
